--- a/data/pca/factorExposure/factorExposure_2014-08-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-08-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.003077764183576896</v>
+        <v>0.01833321170032034</v>
       </c>
       <c r="C2">
-        <v>-0.1125177558099652</v>
+        <v>-0.06749555261081448</v>
       </c>
       <c r="D2">
-        <v>-0.0303636211396273</v>
+        <v>0.03240036446225342</v>
       </c>
       <c r="E2">
-        <v>-0.2334065471336536</v>
+        <v>-0.009125952061757288</v>
       </c>
       <c r="F2">
-        <v>0.03717166658842086</v>
+        <v>-0.1480252963406026</v>
       </c>
       <c r="G2">
-        <v>0.03946152576521553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.07163003005628062</v>
+      </c>
+      <c r="H2">
+        <v>0.01293023256123133</v>
+      </c>
+      <c r="I2">
+        <v>0.09973638906248575</v>
+      </c>
+      <c r="J2">
+        <v>-0.07161690908036099</v>
+      </c>
+      <c r="K2">
+        <v>0.05646524220184389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01431540116202859</v>
+        <v>0.01857092288995673</v>
       </c>
       <c r="C4">
-        <v>-0.1639659295449312</v>
+        <v>-0.1431653162088056</v>
       </c>
       <c r="D4">
-        <v>-0.03543463173320015</v>
+        <v>0.06605637421537265</v>
       </c>
       <c r="E4">
-        <v>-0.04735550755398087</v>
+        <v>0.04634179325547851</v>
       </c>
       <c r="F4">
-        <v>-0.0626082029809434</v>
+        <v>-0.04185614794580868</v>
       </c>
       <c r="G4">
-        <v>-0.03024270942152765</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03438633208913588</v>
+      </c>
+      <c r="H4">
+        <v>-0.02906214665765169</v>
+      </c>
+      <c r="I4">
+        <v>0.1030185800148732</v>
+      </c>
+      <c r="J4">
+        <v>0.03173630925414848</v>
+      </c>
+      <c r="K4">
+        <v>-0.004105729271304571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.01906974189808745</v>
+        <v>0.03843868371470471</v>
       </c>
       <c r="C6">
-        <v>-0.07731988505613792</v>
+        <v>-0.08559331170434994</v>
       </c>
       <c r="D6">
-        <v>-0.05614729512395315</v>
+        <v>0.02751644961172672</v>
       </c>
       <c r="E6">
-        <v>-0.05557234964124052</v>
+        <v>-0.01067020562253239</v>
       </c>
       <c r="F6">
-        <v>-0.007326895985536775</v>
+        <v>-0.05476212473157752</v>
       </c>
       <c r="G6">
-        <v>-0.04821338058391814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.0479502164672409</v>
+      </c>
+      <c r="H6">
+        <v>-0.05355179295338365</v>
+      </c>
+      <c r="I6">
+        <v>-0.008939414664420367</v>
+      </c>
+      <c r="J6">
+        <v>0.03668998404497367</v>
+      </c>
+      <c r="K6">
+        <v>0.05060615483729249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.001474733851064763</v>
+        <v>0.01790260274902734</v>
       </c>
       <c r="C7">
-        <v>-0.0633948761004538</v>
+        <v>-0.0681434509767594</v>
       </c>
       <c r="D7">
-        <v>-0.03692287891655607</v>
+        <v>0.0314635942051547</v>
       </c>
       <c r="E7">
-        <v>-0.007451551825854466</v>
+        <v>0.0226080740749626</v>
       </c>
       <c r="F7">
-        <v>-0.02590046028766902</v>
+        <v>-0.001184583280328767</v>
       </c>
       <c r="G7">
-        <v>-0.0359738015144785</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01519937782073805</v>
+      </c>
+      <c r="H7">
+        <v>-0.03000581166021381</v>
+      </c>
+      <c r="I7">
+        <v>0.1033453309837544</v>
+      </c>
+      <c r="J7">
+        <v>-0.007137552543777011</v>
+      </c>
+      <c r="K7">
+        <v>0.02331747448074022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.01371635381865374</v>
+        <v>0.0004627131668105202</v>
       </c>
       <c r="C8">
-        <v>-0.07056361259068181</v>
+        <v>-0.0590954138301831</v>
       </c>
       <c r="D8">
-        <v>-0.04490074333537576</v>
+        <v>0.04783863585297068</v>
       </c>
       <c r="E8">
-        <v>-0.05907436000206057</v>
+        <v>0.02507865739859714</v>
       </c>
       <c r="F8">
-        <v>-0.01020801331836278</v>
+        <v>-0.06689505490417635</v>
       </c>
       <c r="G8">
-        <v>0.008522042570432372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.01525489100203188</v>
+      </c>
+      <c r="H8">
+        <v>0.01347488213386019</v>
+      </c>
+      <c r="I8">
+        <v>0.03728368859153804</v>
+      </c>
+      <c r="J8">
+        <v>0.04361477247128245</v>
+      </c>
+      <c r="K8">
+        <v>-0.01308472106831286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.007338500783729889</v>
+        <v>0.01375101955644068</v>
       </c>
       <c r="C9">
-        <v>-0.1165764350327316</v>
+        <v>-0.1017645371156535</v>
       </c>
       <c r="D9">
-        <v>-0.04891297057195298</v>
+        <v>0.04119181243431267</v>
       </c>
       <c r="E9">
-        <v>-0.01039308233856805</v>
+        <v>0.01319787858596828</v>
       </c>
       <c r="F9">
-        <v>-0.004644791883307366</v>
+        <v>-0.02536309983670584</v>
       </c>
       <c r="G9">
-        <v>-0.03992970966382216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02697967944413942</v>
+      </c>
+      <c r="H9">
+        <v>-0.01463924630818238</v>
+      </c>
+      <c r="I9">
+        <v>0.1132185174979287</v>
+      </c>
+      <c r="J9">
+        <v>0.02330869957476518</v>
+      </c>
+      <c r="K9">
+        <v>0.01682561253179731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2726984092946153</v>
+        <v>0.2477522589818427</v>
       </c>
       <c r="C10">
-        <v>0.06593836732957631</v>
+        <v>0.09604503733806537</v>
       </c>
       <c r="D10">
-        <v>0.01904040096300749</v>
+        <v>-0.003748576952586589</v>
       </c>
       <c r="E10">
-        <v>0.02772683030776145</v>
+        <v>0.007514065425094511</v>
       </c>
       <c r="F10">
-        <v>-0.01032488721894016</v>
+        <v>-0.01829499497923359</v>
       </c>
       <c r="G10">
-        <v>-0.005698662270161773</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.06265112086186574</v>
+      </c>
+      <c r="H10">
+        <v>-0.02099899679172154</v>
+      </c>
+      <c r="I10">
+        <v>0.02506065971342884</v>
+      </c>
+      <c r="J10">
+        <v>0.006013360129919887</v>
+      </c>
+      <c r="K10">
+        <v>-0.167155751266888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.002771580151307616</v>
+        <v>0.01683258047862828</v>
       </c>
       <c r="C11">
-        <v>-0.06768138420006933</v>
+        <v>-0.08036531467987269</v>
       </c>
       <c r="D11">
-        <v>-0.03137403707853079</v>
+        <v>0.03870516120660015</v>
       </c>
       <c r="E11">
-        <v>0.02700799025553441</v>
+        <v>0.002750688496469272</v>
       </c>
       <c r="F11">
-        <v>-0.006355484087240836</v>
+        <v>0.009802117899579577</v>
       </c>
       <c r="G11">
-        <v>-0.04015434168886337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.0007469025744206348</v>
+      </c>
+      <c r="H11">
+        <v>-0.008949329094429423</v>
+      </c>
+      <c r="I11">
+        <v>0.03549201939264498</v>
+      </c>
+      <c r="J11">
+        <v>0.009060574328453039</v>
+      </c>
+      <c r="K11">
+        <v>0.02881310685711467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.0005358687350045582</v>
+        <v>0.01577499924179722</v>
       </c>
       <c r="C12">
-        <v>-0.04395477894262146</v>
+        <v>-0.05276821730502897</v>
       </c>
       <c r="D12">
-        <v>-0.03672609617313036</v>
+        <v>0.02612995290659892</v>
       </c>
       <c r="E12">
-        <v>0.01831404971805312</v>
+        <v>-0.0165453360356296</v>
       </c>
       <c r="F12">
-        <v>0.02291130483996158</v>
+        <v>-0.001465094205121378</v>
       </c>
       <c r="G12">
-        <v>-0.04523104549934085</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.009472418310218165</v>
+      </c>
+      <c r="H12">
+        <v>-0.0246819848273038</v>
+      </c>
+      <c r="I12">
+        <v>0.02880875439951618</v>
+      </c>
+      <c r="J12">
+        <v>0.01619665539019233</v>
+      </c>
+      <c r="K12">
+        <v>0.01543403132715977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.00419101473036228</v>
+        <v>0.003626898832994351</v>
       </c>
       <c r="C13">
-        <v>-0.1197888991979667</v>
+        <v>-0.1126074494448645</v>
       </c>
       <c r="D13">
-        <v>-0.08284754171392283</v>
+        <v>0.04218951798919556</v>
       </c>
       <c r="E13">
-        <v>-0.05304043439008072</v>
+        <v>-0.06441113365092262</v>
       </c>
       <c r="F13">
-        <v>0.06242658781573383</v>
+        <v>-0.1485910618803166</v>
       </c>
       <c r="G13">
-        <v>-0.1370491993796729</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.01657788084493007</v>
+      </c>
+      <c r="H13">
+        <v>-0.1291001239550111</v>
+      </c>
+      <c r="I13">
+        <v>0.1669530336427053</v>
+      </c>
+      <c r="J13">
+        <v>-0.1596595714139566</v>
+      </c>
+      <c r="K13">
+        <v>-0.1263231187466962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.00601255706637107</v>
+        <v>0.02029001428242069</v>
       </c>
       <c r="C14">
-        <v>-0.07295053323932925</v>
+        <v>-0.07331167169425166</v>
       </c>
       <c r="D14">
-        <v>-0.04324871124004191</v>
+        <v>0.04883354233746041</v>
       </c>
       <c r="E14">
-        <v>-0.02387878628449559</v>
+        <v>-0.02458785980425433</v>
       </c>
       <c r="F14">
-        <v>0.03119800097270167</v>
+        <v>-0.03574948965849647</v>
       </c>
       <c r="G14">
-        <v>-0.08145062480732583</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.05771316001492976</v>
+      </c>
+      <c r="H14">
+        <v>-0.1023174492435637</v>
+      </c>
+      <c r="I14">
+        <v>0.1805653851168243</v>
+      </c>
+      <c r="J14">
+        <v>0.03574969506346105</v>
+      </c>
+      <c r="K14">
+        <v>0.004622138284677282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.00216259117654567</v>
+        <v>0.003781127702299528</v>
       </c>
       <c r="C15">
-        <v>-0.0920510646738396</v>
+        <v>-0.07947954524065544</v>
       </c>
       <c r="D15">
-        <v>-0.04816395039930126</v>
+        <v>0.03527625883612105</v>
       </c>
       <c r="E15">
-        <v>-0.02971758243132256</v>
+        <v>0.02297760966587819</v>
       </c>
       <c r="F15">
-        <v>-0.003439900641558435</v>
+        <v>-0.02839184924647287</v>
       </c>
       <c r="G15">
-        <v>-0.03347685917386527</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.01208487145093577</v>
+      </c>
+      <c r="H15">
+        <v>-0.0279413780777133</v>
+      </c>
+      <c r="I15">
+        <v>0.08923739684966332</v>
+      </c>
+      <c r="J15">
+        <v>0.02647104559386951</v>
+      </c>
+      <c r="K15">
+        <v>0.01564913146029146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.006833170612063091</v>
+        <v>0.01586600710600561</v>
       </c>
       <c r="C16">
-        <v>-0.0576239288224359</v>
+        <v>-0.06042100074867979</v>
       </c>
       <c r="D16">
-        <v>-0.028826260832009</v>
+        <v>0.02745951329857576</v>
       </c>
       <c r="E16">
-        <v>0.01595674067773669</v>
+        <v>6.157510914997421e-05</v>
       </c>
       <c r="F16">
-        <v>0.008621393664649346</v>
+        <v>0.005620436810704595</v>
       </c>
       <c r="G16">
-        <v>-0.02554876162677855</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.0009881134835076244</v>
+      </c>
+      <c r="H16">
+        <v>-0.007835141791683363</v>
+      </c>
+      <c r="I16">
+        <v>0.02448097633333474</v>
+      </c>
+      <c r="J16">
+        <v>0.006730524613517661</v>
+      </c>
+      <c r="K16">
+        <v>0.02027393587242169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.007869399829042638</v>
+        <v>0.01558300141390322</v>
       </c>
       <c r="C20">
-        <v>-0.08793967284873394</v>
+        <v>-0.083599231650919</v>
       </c>
       <c r="D20">
-        <v>-0.04118978172681337</v>
+        <v>0.02739044362172799</v>
       </c>
       <c r="E20">
-        <v>0.03615954052978035</v>
+        <v>0.02835526499205382</v>
       </c>
       <c r="F20">
-        <v>0.005157014788480369</v>
+        <v>0.005891293816571029</v>
       </c>
       <c r="G20">
-        <v>-0.09506218095168878</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.03156277250333926</v>
+      </c>
+      <c r="H20">
+        <v>-0.04090310038194976</v>
+      </c>
+      <c r="I20">
+        <v>0.06373845484387203</v>
+      </c>
+      <c r="J20">
+        <v>0.01752642869065069</v>
+      </c>
+      <c r="K20">
+        <v>0.01537472043613383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-9.447600885138436e-05</v>
+        <v>0.01317498857376422</v>
       </c>
       <c r="C21">
-        <v>-0.09200965200776311</v>
+        <v>-0.06859076357387474</v>
       </c>
       <c r="D21">
-        <v>0.009150889850232703</v>
+        <v>0.01986380955394165</v>
       </c>
       <c r="E21">
-        <v>-0.03088890582896309</v>
+        <v>-0.05842423269166862</v>
       </c>
       <c r="F21">
-        <v>0.05864635469503967</v>
+        <v>-0.07055839114673387</v>
       </c>
       <c r="G21">
-        <v>-0.02395240478618592</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05443358589485581</v>
+      </c>
+      <c r="H21">
+        <v>-0.02745320738736757</v>
+      </c>
+      <c r="I21">
+        <v>0.1389126629008967</v>
+      </c>
+      <c r="J21">
+        <v>-0.01610463810905585</v>
+      </c>
+      <c r="K21">
+        <v>-0.001841056785902172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.009165690549229753</v>
+        <v>0.005473965252072445</v>
       </c>
       <c r="C22">
-        <v>-0.2412101297984056</v>
+        <v>-0.1706910400987934</v>
       </c>
       <c r="D22">
-        <v>0.07761949542450844</v>
+        <v>0.02012043084708014</v>
       </c>
       <c r="E22">
-        <v>-0.3161464276983907</v>
+        <v>0.2342221093883953</v>
       </c>
       <c r="F22">
-        <v>-0.3217598038188307</v>
+        <v>-0.3913581933085351</v>
       </c>
       <c r="G22">
-        <v>0.02550825366225352</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.2914487440371897</v>
+      </c>
+      <c r="H22">
+        <v>-0.001631246499146555</v>
+      </c>
+      <c r="I22">
+        <v>-0.2947715093253572</v>
+      </c>
+      <c r="J22">
+        <v>-0.08159477293582011</v>
+      </c>
+      <c r="K22">
+        <v>0.002623793150849849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.01008385588903239</v>
+        <v>0.01064128717647952</v>
       </c>
       <c r="C23">
-        <v>-0.2453789299631463</v>
+        <v>-0.1742738189160597</v>
       </c>
       <c r="D23">
-        <v>0.08215670383095058</v>
+        <v>0.01986954940696151</v>
       </c>
       <c r="E23">
-        <v>-0.3109039392169554</v>
+        <v>0.2253579018148068</v>
       </c>
       <c r="F23">
-        <v>-0.3168803254135665</v>
+        <v>-0.3806332482569284</v>
       </c>
       <c r="G23">
-        <v>0.0260557049706684</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.2850635391221618</v>
+      </c>
+      <c r="H23">
+        <v>-0.002832055009816732</v>
+      </c>
+      <c r="I23">
+        <v>-0.2725096460744627</v>
+      </c>
+      <c r="J23">
+        <v>-0.07279205096105672</v>
+      </c>
+      <c r="K23">
+        <v>0.007759463980069039</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.0009816439355413071</v>
+        <v>0.01629055779619584</v>
       </c>
       <c r="C24">
-        <v>-0.05526921926052406</v>
+        <v>-0.06323524115041493</v>
       </c>
       <c r="D24">
-        <v>-0.04268699732748826</v>
+        <v>0.04046986682650265</v>
       </c>
       <c r="E24">
-        <v>0.02223721334298744</v>
+        <v>0.002847420951442455</v>
       </c>
       <c r="F24">
-        <v>-0.000271336182283287</v>
+        <v>0.005496683669750048</v>
       </c>
       <c r="G24">
-        <v>-0.05022997738737481</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.0008414883728421012</v>
+      </c>
+      <c r="H24">
+        <v>-0.02363649045697004</v>
+      </c>
+      <c r="I24">
+        <v>0.0442447646038378</v>
+      </c>
+      <c r="J24">
+        <v>0.007559933613703366</v>
+      </c>
+      <c r="K24">
+        <v>0.02585473812754573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.001296082998681771</v>
+        <v>0.02001044477186441</v>
       </c>
       <c r="C25">
-        <v>-0.06456991685734188</v>
+        <v>-0.06628489571280373</v>
       </c>
       <c r="D25">
-        <v>-0.02264003042072402</v>
+        <v>0.0331704248774647</v>
       </c>
       <c r="E25">
-        <v>0.0258780330960619</v>
+        <v>0.002694343052393279</v>
       </c>
       <c r="F25">
-        <v>0.003145857983848882</v>
+        <v>0.004752377609427391</v>
       </c>
       <c r="G25">
-        <v>-0.04913948116720485</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.003747738723088688</v>
+      </c>
+      <c r="H25">
+        <v>-0.01699684572894909</v>
+      </c>
+      <c r="I25">
+        <v>0.04154037764870611</v>
+      </c>
+      <c r="J25">
+        <v>0.00787043570606903</v>
+      </c>
+      <c r="K25">
+        <v>0.009836666648404768</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.003796958603428713</v>
+        <v>0.0225695382901909</v>
       </c>
       <c r="C26">
-        <v>-0.05028264963311628</v>
+        <v>-0.05502621954492117</v>
       </c>
       <c r="D26">
-        <v>-0.07737545895987087</v>
+        <v>0.06309063450165125</v>
       </c>
       <c r="E26">
-        <v>0.01111064188116349</v>
+        <v>0.002219390183450426</v>
       </c>
       <c r="F26">
-        <v>0.03894184705339127</v>
+        <v>0.01071982958030845</v>
       </c>
       <c r="G26">
-        <v>-0.06178099360198643</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.00210002174866199</v>
+      </c>
+      <c r="H26">
+        <v>-0.0005072383311865255</v>
+      </c>
+      <c r="I26">
+        <v>0.1221636797761816</v>
+      </c>
+      <c r="J26">
+        <v>-6.798612265953145e-05</v>
+      </c>
+      <c r="K26">
+        <v>0.06552633867540233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3676382551336448</v>
+        <v>0.3112536891788092</v>
       </c>
       <c r="C28">
-        <v>0.07807072052227876</v>
+        <v>0.1116107619549159</v>
       </c>
       <c r="D28">
-        <v>0.01476539806912039</v>
+        <v>-0.03230335071819224</v>
       </c>
       <c r="E28">
-        <v>0.04267444281830102</v>
+        <v>0.01921210103383104</v>
       </c>
       <c r="F28">
-        <v>0.05581611246024711</v>
+        <v>-0.05949343625072741</v>
       </c>
       <c r="G28">
-        <v>0.08985001072043097</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.009807775435997937</v>
+      </c>
+      <c r="H28">
+        <v>0.1093598741082121</v>
+      </c>
+      <c r="I28">
+        <v>0.06800749308136243</v>
+      </c>
+      <c r="J28">
+        <v>-0.04433189848876466</v>
+      </c>
+      <c r="K28">
+        <v>-0.2040250970751473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.005671691526848397</v>
+        <v>0.01674511964987872</v>
       </c>
       <c r="C29">
-        <v>-0.08061758844051588</v>
+        <v>-0.08438348972521793</v>
       </c>
       <c r="D29">
-        <v>-0.04926346510432109</v>
+        <v>0.05094525035039239</v>
       </c>
       <c r="E29">
-        <v>-0.005513430367102821</v>
+        <v>-0.03200571663175088</v>
       </c>
       <c r="F29">
-        <v>0.03667079143266484</v>
+        <v>-0.03400163900673237</v>
       </c>
       <c r="G29">
-        <v>-0.1198784791109502</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.0555908070432721</v>
+      </c>
+      <c r="H29">
+        <v>-0.1532151172073639</v>
+      </c>
+      <c r="I29">
+        <v>0.2569176544476552</v>
+      </c>
+      <c r="J29">
+        <v>0.06330754318914715</v>
+      </c>
+      <c r="K29">
+        <v>-0.01898837328093074</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.01662381963519758</v>
+        <v>0.03271885714559049</v>
       </c>
       <c r="C30">
-        <v>-0.1679612589299314</v>
+        <v>-0.142355085690218</v>
       </c>
       <c r="D30">
-        <v>-0.06895236677654472</v>
+        <v>0.05594751463894435</v>
       </c>
       <c r="E30">
-        <v>-0.02407799476927163</v>
+        <v>0.0385947190358015</v>
       </c>
       <c r="F30">
-        <v>-0.04841554752786405</v>
+        <v>-0.04926207914140848</v>
       </c>
       <c r="G30">
-        <v>-0.02564406645172193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.002081919232831235</v>
+      </c>
+      <c r="H30">
+        <v>-0.01530632680327539</v>
+      </c>
+      <c r="I30">
+        <v>0.0273620794827291</v>
+      </c>
+      <c r="J30">
+        <v>0.02922045465316562</v>
+      </c>
+      <c r="K30">
+        <v>0.04988431721087727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.004077219557164592</v>
+        <v>0.01492264051638078</v>
       </c>
       <c r="C31">
-        <v>-0.05373183461729912</v>
+        <v>-0.0784733066013462</v>
       </c>
       <c r="D31">
-        <v>-0.03603020009092291</v>
+        <v>0.04244488576243539</v>
       </c>
       <c r="E31">
-        <v>0.01996924617631391</v>
+        <v>0.001586893488060379</v>
       </c>
       <c r="F31">
-        <v>0.01364197678584439</v>
+        <v>-0.006051497479301016</v>
       </c>
       <c r="G31">
-        <v>-0.01405342279311915</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.002300688544756369</v>
+      </c>
+      <c r="H31">
+        <v>0.0220875204432279</v>
+      </c>
+      <c r="I31">
+        <v>0.04016395481163651</v>
+      </c>
+      <c r="J31">
+        <v>0.01712518215677153</v>
+      </c>
+      <c r="K31">
+        <v>0.005688242939984029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.01632025340612517</v>
+        <v>0.02213434391738811</v>
       </c>
       <c r="C32">
-        <v>-0.07392790082434809</v>
+        <v>-0.05141710111251715</v>
       </c>
       <c r="D32">
-        <v>-0.004477698218749986</v>
+        <v>0.02413232598907248</v>
       </c>
       <c r="E32">
-        <v>-0.1446298370605592</v>
+        <v>-0.02134635670949885</v>
       </c>
       <c r="F32">
-        <v>-0.003782732835509949</v>
+        <v>-0.1127596616480693</v>
       </c>
       <c r="G32">
-        <v>-0.09465120424731915</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.004934650677719235</v>
+      </c>
+      <c r="H32">
+        <v>-0.08627199104951665</v>
+      </c>
+      <c r="I32">
+        <v>0.1645462496274758</v>
+      </c>
+      <c r="J32">
+        <v>-0.05727837075157732</v>
+      </c>
+      <c r="K32">
+        <v>-0.2477752406706646</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.007526623225095433</v>
+        <v>0.01693356309143968</v>
       </c>
       <c r="C33">
-        <v>-0.09035898270301501</v>
+        <v>-0.1015771873615296</v>
       </c>
       <c r="D33">
-        <v>-0.06463310666833035</v>
+        <v>0.0529134958113923</v>
       </c>
       <c r="E33">
-        <v>-0.005153801432675829</v>
+        <v>0.01782058403818278</v>
       </c>
       <c r="F33">
-        <v>0.01207561827363429</v>
+        <v>-0.01901261922306152</v>
       </c>
       <c r="G33">
-        <v>-0.0430097003515794</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.004557200291198216</v>
+      </c>
+      <c r="H33">
+        <v>-0.02839264496079069</v>
+      </c>
+      <c r="I33">
+        <v>0.05929364671827909</v>
+      </c>
+      <c r="J33">
+        <v>-0.001141920273372269</v>
+      </c>
+      <c r="K33">
+        <v>-0.02017330069633499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.002101842163283322</v>
+        <v>0.01763127743337225</v>
       </c>
       <c r="C34">
-        <v>-0.05016037020243139</v>
+        <v>-0.04862091566682492</v>
       </c>
       <c r="D34">
-        <v>-0.02425470301913256</v>
+        <v>0.02139438414663871</v>
       </c>
       <c r="E34">
-        <v>0.005895124951771247</v>
+        <v>-0.00447099224661311</v>
       </c>
       <c r="F34">
-        <v>0.02388823928575629</v>
+        <v>0.003143082967016903</v>
       </c>
       <c r="G34">
-        <v>-0.04168238377718952</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.008229214219080126</v>
+      </c>
+      <c r="H34">
+        <v>-0.01997403517474611</v>
+      </c>
+      <c r="I34">
+        <v>-3.351340466409442e-05</v>
+      </c>
+      <c r="J34">
+        <v>0.01995990642405957</v>
+      </c>
+      <c r="K34">
+        <v>0.007642925581388753</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.001839925818288552</v>
+        <v>0.01029279653152534</v>
       </c>
       <c r="C35">
-        <v>-0.0280625046744486</v>
+        <v>-0.04495944985504063</v>
       </c>
       <c r="D35">
-        <v>-0.008335929292554124</v>
+        <v>0.0218819215891499</v>
       </c>
       <c r="E35">
-        <v>-0.002100661307461797</v>
+        <v>-0.001016607844890305</v>
       </c>
       <c r="F35">
-        <v>0.009271746921116925</v>
+        <v>-0.01897391115504851</v>
       </c>
       <c r="G35">
-        <v>-0.04069487713874533</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.03081137536745265</v>
+      </c>
+      <c r="H35">
+        <v>-0.06508645383824922</v>
+      </c>
+      <c r="I35">
+        <v>0.1335924941772464</v>
+      </c>
+      <c r="J35">
+        <v>0.06294464823450542</v>
+      </c>
+      <c r="K35">
+        <v>-0.03862298908929328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.006414768421394999</v>
+        <v>0.01402303972277418</v>
       </c>
       <c r="C36">
-        <v>-0.05257992829882084</v>
+        <v>-0.04546762243862811</v>
       </c>
       <c r="D36">
-        <v>-0.0598134205784607</v>
+        <v>0.04452803209737647</v>
       </c>
       <c r="E36">
-        <v>0.01348717288538041</v>
+        <v>0.01044306030248597</v>
       </c>
       <c r="F36">
-        <v>0.01666233911989337</v>
+        <v>-0.01548533549659288</v>
       </c>
       <c r="G36">
-        <v>-0.04095928974759164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.00703770396574574</v>
+      </c>
+      <c r="H36">
+        <v>-0.001746565046882755</v>
+      </c>
+      <c r="I36">
+        <v>0.08919841318840294</v>
+      </c>
+      <c r="J36">
+        <v>-0.006472826387293028</v>
+      </c>
+      <c r="K36">
+        <v>0.02067740934405195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.02902468109429552</v>
+        <v>0.009731157760558167</v>
       </c>
       <c r="C38">
-        <v>-0.05675572886779488</v>
+        <v>-0.05864519939270754</v>
       </c>
       <c r="D38">
-        <v>-0.04392146763633144</v>
+        <v>0.03909224632692661</v>
       </c>
       <c r="E38">
-        <v>0.02401022379032069</v>
+        <v>0.04816900410077732</v>
       </c>
       <c r="F38">
-        <v>0.005470619556157926</v>
+        <v>-0.016766932261371</v>
       </c>
       <c r="G38">
-        <v>-0.0381438299240089</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.03647449873652155</v>
+      </c>
+      <c r="H38">
+        <v>-0.01962946859786082</v>
+      </c>
+      <c r="I38">
+        <v>0.07012803291572495</v>
+      </c>
+      <c r="J38">
+        <v>-0.01902905400480836</v>
+      </c>
+      <c r="K38">
+        <v>-0.06418522875319574</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.00211782721421024</v>
+        <v>0.02382373896331063</v>
       </c>
       <c r="C39">
-        <v>-0.1242834398217308</v>
+        <v>-0.1317734529621706</v>
       </c>
       <c r="D39">
-        <v>-0.05843732858782982</v>
+        <v>0.06064805390105042</v>
       </c>
       <c r="E39">
-        <v>0.01402604598726177</v>
+        <v>-0.003759323186583165</v>
       </c>
       <c r="F39">
-        <v>0.01043396466631347</v>
+        <v>-0.001902949486457162</v>
       </c>
       <c r="G39">
-        <v>-0.07126489544663209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.03995025207722581</v>
+      </c>
+      <c r="H39">
+        <v>-0.04176002979461818</v>
+      </c>
+      <c r="I39">
+        <v>0.02435522581055395</v>
+      </c>
+      <c r="J39">
+        <v>0.02923447522633774</v>
+      </c>
+      <c r="K39">
+        <v>0.0941926338578543</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.002566852212459217</v>
+        <v>0.01370831254618876</v>
       </c>
       <c r="C40">
-        <v>-0.02942793732799315</v>
+        <v>-0.05415896764551481</v>
       </c>
       <c r="D40">
-        <v>-0.02705756101628611</v>
+        <v>0.04322058370603265</v>
       </c>
       <c r="E40">
-        <v>-0.1199839002767529</v>
+        <v>-0.01810451841072029</v>
       </c>
       <c r="F40">
-        <v>-0.06336959180322148</v>
+        <v>-0.03694097479147579</v>
       </c>
       <c r="G40">
-        <v>-0.1049668762308184</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.007999249856972545</v>
+      </c>
+      <c r="H40">
+        <v>-0.1542625353506285</v>
+      </c>
+      <c r="I40">
+        <v>0.03109119227981899</v>
+      </c>
+      <c r="J40">
+        <v>0.01608780508662812</v>
+      </c>
+      <c r="K40">
+        <v>0.002132978101632089</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01083892906968757</v>
+        <v>0.02190574830894331</v>
       </c>
       <c r="C41">
-        <v>-0.02367344610666365</v>
+        <v>-0.04705800942963299</v>
       </c>
       <c r="D41">
-        <v>-0.00407595721906844</v>
+        <v>0.0153461194097199</v>
       </c>
       <c r="E41">
-        <v>-0.002031112638947379</v>
+        <v>-0.005973846589106383</v>
       </c>
       <c r="F41">
-        <v>0.01025457138689716</v>
+        <v>0.01337607861024058</v>
       </c>
       <c r="G41">
-        <v>0.04041540397778534</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.008413252488278762</v>
+      </c>
+      <c r="H41">
+        <v>0.005656612986926149</v>
+      </c>
+      <c r="I41">
+        <v>0.02703408206439729</v>
+      </c>
+      <c r="J41">
+        <v>-0.01254173901206908</v>
+      </c>
+      <c r="K41">
+        <v>-0.03033568381349432</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.005344860746314032</v>
+        <v>0.01913683011443697</v>
       </c>
       <c r="C43">
-        <v>-0.02182237665117417</v>
+        <v>-0.04327303685862611</v>
       </c>
       <c r="D43">
-        <v>-0.02219237088440922</v>
+        <v>0.02928358664081219</v>
       </c>
       <c r="E43">
-        <v>0.004461202680766178</v>
+        <v>0.009501073149209867</v>
       </c>
       <c r="F43">
-        <v>-0.004476796811678277</v>
+        <v>0.00982780132782173</v>
       </c>
       <c r="G43">
-        <v>0.00426407457411364</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01171966491774962</v>
+      </c>
+      <c r="H43">
+        <v>-0.006297117170398646</v>
+      </c>
+      <c r="I43">
+        <v>0.03549064895513876</v>
+      </c>
+      <c r="J43">
+        <v>-0.006223368105126739</v>
+      </c>
+      <c r="K43">
+        <v>0.001286443082128826</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.01761168988808283</v>
+        <v>0.01542348763733671</v>
       </c>
       <c r="C44">
-        <v>-0.1005697685072795</v>
+        <v>-0.09640713385748201</v>
       </c>
       <c r="D44">
-        <v>-0.035702226683056</v>
+        <v>0.05808603074802314</v>
       </c>
       <c r="E44">
-        <v>-0.02483314102210996</v>
+        <v>0.05278090414582261</v>
       </c>
       <c r="F44">
-        <v>-0.02169723847779509</v>
+        <v>-0.04827121469287846</v>
       </c>
       <c r="G44">
-        <v>-0.07671379817540702</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.01010010956203037</v>
+      </c>
+      <c r="H44">
+        <v>-0.05285905988868799</v>
+      </c>
+      <c r="I44">
+        <v>0.0504258333546577</v>
+      </c>
+      <c r="J44">
+        <v>0.00186694482807764</v>
+      </c>
+      <c r="K44">
+        <v>0.05931570201859379</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.005644165099985499</v>
+        <v>0.004318371641579704</v>
       </c>
       <c r="C46">
-        <v>-0.05955508150504914</v>
+        <v>-0.06330507143093271</v>
       </c>
       <c r="D46">
-        <v>-0.04772622118896269</v>
+        <v>0.02854626928644645</v>
       </c>
       <c r="E46">
-        <v>-0.01571228237467025</v>
+        <v>-0.00348336645184574</v>
       </c>
       <c r="F46">
-        <v>0.008331299361032118</v>
+        <v>-0.003743696718401396</v>
       </c>
       <c r="G46">
-        <v>-0.05868531090001652</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01937967611340994</v>
+      </c>
+      <c r="H46">
+        <v>-0.04479768380748457</v>
+      </c>
+      <c r="I46">
+        <v>0.09954642524636173</v>
+      </c>
+      <c r="J46">
+        <v>-0.005631829657685029</v>
+      </c>
+      <c r="K46">
+        <v>0.008611178891412873</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.005119711329852365</v>
+        <v>0.02237399491935265</v>
       </c>
       <c r="C47">
-        <v>-0.05964508913153743</v>
+        <v>-0.0746955629474486</v>
       </c>
       <c r="D47">
-        <v>-0.05766184459918585</v>
+        <v>0.04410017382511445</v>
       </c>
       <c r="E47">
-        <v>0.02349016686092269</v>
+        <v>-0.004622079806568014</v>
       </c>
       <c r="F47">
-        <v>0.05089792860466752</v>
+        <v>0.007670486849075952</v>
       </c>
       <c r="G47">
-        <v>-0.02606258921043249</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.01671066350540441</v>
+      </c>
+      <c r="H47">
+        <v>-0.009387067398396809</v>
+      </c>
+      <c r="I47">
+        <v>0.07197326686697904</v>
+      </c>
+      <c r="J47">
+        <v>-0.01039662875345425</v>
+      </c>
+      <c r="K47">
+        <v>-0.01407153689840063</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.007067038095003302</v>
+        <v>0.01764194609598611</v>
       </c>
       <c r="C48">
-        <v>-0.05689316887799833</v>
+        <v>-0.04556446611133749</v>
       </c>
       <c r="D48">
-        <v>-0.06729045351896835</v>
+        <v>0.05354874570582985</v>
       </c>
       <c r="E48">
-        <v>0.01413100970290276</v>
+        <v>0.01292904708224463</v>
       </c>
       <c r="F48">
-        <v>0.01140725178643811</v>
+        <v>-0.007789069711599967</v>
       </c>
       <c r="G48">
-        <v>-0.057413095210865</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.002197828813112457</v>
+      </c>
+      <c r="H48">
+        <v>-0.001753996391193686</v>
+      </c>
+      <c r="I48">
+        <v>0.1195208145983488</v>
+      </c>
+      <c r="J48">
+        <v>-0.005480424658155565</v>
+      </c>
+      <c r="K48">
+        <v>0.04843149612480895</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.01961110605134051</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.04464187579283126</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.007564211878917586</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.01952872930215399</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.06734573242371542</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.03170119679859922</v>
+      </c>
+      <c r="H49">
+        <v>-0.0510850322589111</v>
+      </c>
+      <c r="I49">
+        <v>-0.07912794215226812</v>
+      </c>
+      <c r="J49">
+        <v>0.0904671437907853</v>
+      </c>
+      <c r="K49">
+        <v>0.03871229470964302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.001403652716831698</v>
+        <v>0.01528048505857146</v>
       </c>
       <c r="C50">
-        <v>-0.06464839943494691</v>
+        <v>-0.07663634279308701</v>
       </c>
       <c r="D50">
-        <v>-0.03075383777253574</v>
+        <v>0.03232425347997964</v>
       </c>
       <c r="E50">
-        <v>0.01068830388081531</v>
+        <v>0.018846473211145</v>
       </c>
       <c r="F50">
-        <v>-0.004114437220041229</v>
+        <v>-0.01347676755087069</v>
       </c>
       <c r="G50">
-        <v>-0.02680984078260406</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.009741133911881283</v>
+      </c>
+      <c r="H50">
+        <v>0.004039086760237425</v>
+      </c>
+      <c r="I50">
+        <v>0.05830728104307922</v>
+      </c>
+      <c r="J50">
+        <v>0.01362493298078719</v>
+      </c>
+      <c r="K50">
+        <v>-0.05139655185781417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.001558440891367445</v>
+        <v>-0.004825584511770495</v>
       </c>
       <c r="C51">
-        <v>-0.06941585839109207</v>
+        <v>-0.0339917228392116</v>
       </c>
       <c r="D51">
-        <v>-0.04216648006293664</v>
+        <v>0.02584107727900691</v>
       </c>
       <c r="E51">
-        <v>-0.04270644778241446</v>
+        <v>0.0080282843458574</v>
       </c>
       <c r="F51">
-        <v>-0.001871676796460392</v>
+        <v>-0.03373269621978706</v>
       </c>
       <c r="G51">
-        <v>-0.007076133899566418</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.01489883470217962</v>
+      </c>
+      <c r="H51">
+        <v>-0.02826562666172403</v>
+      </c>
+      <c r="I51">
+        <v>0.1057412794250318</v>
+      </c>
+      <c r="J51">
+        <v>-0.01816753319744776</v>
+      </c>
+      <c r="K51">
+        <v>0.04432976059474599</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.02817005997216509</v>
+        <v>0.05964851281292087</v>
       </c>
       <c r="C53">
-        <v>-0.1207889233006023</v>
+        <v>-0.1322652149434473</v>
       </c>
       <c r="D53">
-        <v>-0.07109675622802017</v>
+        <v>0.05898072123474334</v>
       </c>
       <c r="E53">
-        <v>0.1180633214303339</v>
+        <v>-0.04504176927428692</v>
       </c>
       <c r="F53">
-        <v>0.04950859187688491</v>
+        <v>0.05614836503240809</v>
       </c>
       <c r="G53">
-        <v>0.08136367268689725</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-1.470746186445455e-05</v>
+      </c>
+      <c r="H53">
+        <v>0.09162677824961228</v>
+      </c>
+      <c r="I53">
+        <v>-0.01167573487918406</v>
+      </c>
+      <c r="J53">
+        <v>-0.0009143543201726121</v>
+      </c>
+      <c r="K53">
+        <v>-0.01706623491437416</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.0003751356166986737</v>
+        <v>0.01629591108470226</v>
       </c>
       <c r="C54">
-        <v>-0.06825586680697621</v>
+        <v>-0.07022784698134152</v>
       </c>
       <c r="D54">
-        <v>-0.01183998090685889</v>
+        <v>0.01338320181488578</v>
       </c>
       <c r="E54">
-        <v>0.01999109595099547</v>
+        <v>-0.005135900102819198</v>
       </c>
       <c r="F54">
-        <v>0.0002626278221147721</v>
+        <v>0.006024213005785335</v>
       </c>
       <c r="G54">
-        <v>-0.03075630330567117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.00263564411419866</v>
+      </c>
+      <c r="H54">
+        <v>-0.02073713837880243</v>
+      </c>
+      <c r="I54">
+        <v>0.06383310207786928</v>
+      </c>
+      <c r="J54">
+        <v>0.01424073976557332</v>
+      </c>
+      <c r="K54">
+        <v>0.02339841362749251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.01206980325223476</v>
+        <v>0.03026757182067452</v>
       </c>
       <c r="C55">
-        <v>-0.08330158303278053</v>
+        <v>-0.08442975905378779</v>
       </c>
       <c r="D55">
-        <v>-0.06579955507785111</v>
+        <v>0.05434389207585996</v>
       </c>
       <c r="E55">
-        <v>0.05199601528130958</v>
+        <v>-0.02775087751886522</v>
       </c>
       <c r="F55">
-        <v>0.03745270451970455</v>
+        <v>0.04139657064883596</v>
       </c>
       <c r="G55">
-        <v>0.01308787570883811</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.005617080781018297</v>
+      </c>
+      <c r="H55">
+        <v>0.04139184139697877</v>
+      </c>
+      <c r="I55">
+        <v>0.002560829695888916</v>
+      </c>
+      <c r="J55">
+        <v>-0.003577410509450217</v>
+      </c>
+      <c r="K55">
+        <v>0.0172556818025083</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.01114815281390789</v>
+        <v>0.04768893673934761</v>
       </c>
       <c r="C56">
-        <v>-0.1483024195980724</v>
+        <v>-0.1536826109866826</v>
       </c>
       <c r="D56">
-        <v>-0.07551793548486375</v>
+        <v>0.08248307814277224</v>
       </c>
       <c r="E56">
-        <v>0.08224580157372237</v>
+        <v>-0.08938719338940136</v>
       </c>
       <c r="F56">
-        <v>0.07305839208352037</v>
+        <v>0.06975271754077636</v>
       </c>
       <c r="G56">
-        <v>0.1232476509794497</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.0004200392619765207</v>
+      </c>
+      <c r="H56">
+        <v>0.1670764741989899</v>
+      </c>
+      <c r="I56">
+        <v>-0.02063298121697638</v>
+      </c>
+      <c r="J56">
+        <v>0.01929470060158548</v>
+      </c>
+      <c r="K56">
+        <v>-0.005847280185704165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.02179110078876387</v>
+        <v>0.01781003359579336</v>
       </c>
       <c r="C58">
-        <v>-0.2863667225304341</v>
+        <v>-0.1744013606508448</v>
       </c>
       <c r="D58">
-        <v>0.01036555693009651</v>
+        <v>0.04452468718244142</v>
       </c>
       <c r="E58">
-        <v>-0.1523005501822336</v>
+        <v>0.161017174224587</v>
       </c>
       <c r="F58">
-        <v>-0.2612724061067664</v>
+        <v>-0.2745320363407544</v>
       </c>
       <c r="G58">
-        <v>0.04177764151225618</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.07664360033032583</v>
+      </c>
+      <c r="H58">
+        <v>0.06671521415786011</v>
+      </c>
+      <c r="I58">
+        <v>0.08588813763902121</v>
+      </c>
+      <c r="J58">
+        <v>-0.0846218163831064</v>
+      </c>
+      <c r="K58">
+        <v>-0.0244106466728199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2880806754670582</v>
+        <v>0.2887137465367772</v>
       </c>
       <c r="C59">
-        <v>-0.006307346424448623</v>
+        <v>0.05051968345992979</v>
       </c>
       <c r="D59">
-        <v>0.004006350660413812</v>
+        <v>-0.005618989249144847</v>
       </c>
       <c r="E59">
-        <v>-0.05437505919380391</v>
+        <v>0.001265399201517307</v>
       </c>
       <c r="F59">
-        <v>0.04811224321865468</v>
+        <v>-0.05077096886240239</v>
       </c>
       <c r="G59">
-        <v>0.007756127581083181</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01365221600460287</v>
+      </c>
+      <c r="H59">
+        <v>0.003551641784499497</v>
+      </c>
+      <c r="I59">
+        <v>-0.02377032186510474</v>
+      </c>
+      <c r="J59">
+        <v>-0.01971969055092663</v>
+      </c>
+      <c r="K59">
+        <v>-0.03608157174102643</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.102390274568047</v>
+        <v>0.1523534469700719</v>
       </c>
       <c r="C60">
-        <v>-0.1461630360292449</v>
+        <v>-0.1590818739594371</v>
       </c>
       <c r="D60">
-        <v>-0.08164964791194851</v>
+        <v>0.0408012887333017</v>
       </c>
       <c r="E60">
-        <v>0.1033035218852199</v>
+        <v>-0.1228182932148255</v>
       </c>
       <c r="F60">
-        <v>0.1852351411021709</v>
+        <v>0.1440062026548037</v>
       </c>
       <c r="G60">
-        <v>-0.2594350585197567</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.07796477003246363</v>
+      </c>
+      <c r="H60">
+        <v>-0.2309348009352618</v>
+      </c>
+      <c r="I60">
+        <v>-0.2214874774887768</v>
+      </c>
+      <c r="J60">
+        <v>-0.05941547119034567</v>
+      </c>
+      <c r="K60">
+        <v>0.02904810405555908</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.001526270451425952</v>
+        <v>0.02430080422358017</v>
       </c>
       <c r="C61">
-        <v>-0.07979834081225659</v>
+        <v>-0.0981727276798839</v>
       </c>
       <c r="D61">
-        <v>-0.06497361118020123</v>
+        <v>0.05572902759198581</v>
       </c>
       <c r="E61">
-        <v>0.02846062270404261</v>
+        <v>-0.01198444406649599</v>
       </c>
       <c r="F61">
-        <v>0.02852788336721826</v>
+        <v>0.01940172044472107</v>
       </c>
       <c r="G61">
-        <v>-0.07260627214755751</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02186902717296616</v>
+      </c>
+      <c r="H61">
+        <v>-0.03114591109938607</v>
+      </c>
+      <c r="I61">
+        <v>0.04310723552808599</v>
+      </c>
+      <c r="J61">
+        <v>0.04886888037522367</v>
+      </c>
+      <c r="K61">
+        <v>0.02603245377145917</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002668052013386148</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01395081810746444</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003186830756199042</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.008850708009266593</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.003397224486358177</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.03166879187743105</v>
+      </c>
+      <c r="H62">
+        <v>-0.01880751325844247</v>
+      </c>
+      <c r="I62">
+        <v>0.01651533037046159</v>
+      </c>
+      <c r="J62">
+        <v>0.03411373638532506</v>
+      </c>
+      <c r="K62">
+        <v>-0.01581916950253147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.003601862848431094</v>
+        <v>0.02646633020284454</v>
       </c>
       <c r="C63">
-        <v>-0.05698680214494183</v>
+        <v>-0.06384689753159649</v>
       </c>
       <c r="D63">
-        <v>-0.03876055970585239</v>
+        <v>0.05943510508422782</v>
       </c>
       <c r="E63">
-        <v>0.02177653236960131</v>
+        <v>-0.006268365036513375</v>
       </c>
       <c r="F63">
-        <v>0.001701785868865855</v>
+        <v>0.004656534950421128</v>
       </c>
       <c r="G63">
-        <v>-0.005701641232493298</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.007950820494672804</v>
+      </c>
+      <c r="H63">
+        <v>-0.003667081838540191</v>
+      </c>
+      <c r="I63">
+        <v>0.06441376646718233</v>
+      </c>
+      <c r="J63">
+        <v>0.03599205351052787</v>
+      </c>
+      <c r="K63">
+        <v>0.008515904635939698</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.005764271307236926</v>
+        <v>0.0179258176162139</v>
       </c>
       <c r="C64">
-        <v>-0.07999978409364751</v>
+        <v>-0.09053556673282462</v>
       </c>
       <c r="D64">
-        <v>-0.067152775267331</v>
+        <v>0.03442257861655112</v>
       </c>
       <c r="E64">
-        <v>0.00709345917011927</v>
+        <v>0.02748224916596965</v>
       </c>
       <c r="F64">
-        <v>-0.008205718267610152</v>
+        <v>-0.007712933199184342</v>
       </c>
       <c r="G64">
-        <v>-0.06167288900562794</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.03531009620960224</v>
+      </c>
+      <c r="H64">
+        <v>-0.06556434269759792</v>
+      </c>
+      <c r="I64">
+        <v>0.04920444158198853</v>
+      </c>
+      <c r="J64">
+        <v>0.04122118882205123</v>
+      </c>
+      <c r="K64">
+        <v>0.07129836763790665</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.00189533152836142</v>
+        <v>0.03158353037085434</v>
       </c>
       <c r="C65">
-        <v>-0.08639589606391661</v>
+        <v>-0.09299179617521251</v>
       </c>
       <c r="D65">
-        <v>-0.03393413309883692</v>
+        <v>0.02239916249916379</v>
       </c>
       <c r="E65">
-        <v>-0.0168145078823189</v>
+        <v>0.01626046113472537</v>
       </c>
       <c r="F65">
-        <v>0.00274753241617558</v>
+        <v>0.007359185358276741</v>
       </c>
       <c r="G65">
-        <v>-0.06977090517704092</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.00344665746107452</v>
+      </c>
+      <c r="H65">
+        <v>-0.08822494270556754</v>
+      </c>
+      <c r="I65">
+        <v>-0.01416470822782025</v>
+      </c>
+      <c r="J65">
+        <v>-0.0002934483840602889</v>
+      </c>
+      <c r="K65">
+        <v>0.07882486246698096</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.00567190017575265</v>
+        <v>0.0207875176135325</v>
       </c>
       <c r="C66">
-        <v>-0.1682909499403504</v>
+        <v>-0.1703600917324215</v>
       </c>
       <c r="D66">
-        <v>-0.05055640343119402</v>
+        <v>0.05202289492119071</v>
       </c>
       <c r="E66">
-        <v>-0.02968358153473677</v>
+        <v>-0.00707497312623307</v>
       </c>
       <c r="F66">
-        <v>0.02393004779352971</v>
+        <v>-0.01634876547771305</v>
       </c>
       <c r="G66">
-        <v>-0.09985423792506273</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.02909346972593291</v>
+      </c>
+      <c r="H66">
+        <v>-0.03668106675905321</v>
+      </c>
+      <c r="I66">
+        <v>0.03614425951772823</v>
+      </c>
+      <c r="J66">
+        <v>0.05512741734643429</v>
+      </c>
+      <c r="K66">
+        <v>0.06153284593404471</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.02871927372729609</v>
+        <v>0.01873503315177701</v>
       </c>
       <c r="C67">
-        <v>-0.03214024132530743</v>
+        <v>-0.05006991776498505</v>
       </c>
       <c r="D67">
-        <v>-0.05982947562522829</v>
+        <v>0.04006466562719128</v>
       </c>
       <c r="E67">
-        <v>0.05414037900723286</v>
+        <v>0.02664486569761366</v>
       </c>
       <c r="F67">
-        <v>0.01726627174920257</v>
+        <v>0.01737326875581502</v>
       </c>
       <c r="G67">
-        <v>-0.04678436932229803</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03175115691768184</v>
+      </c>
+      <c r="H67">
+        <v>-0.04092442200316839</v>
+      </c>
+      <c r="I67">
+        <v>0.05313291760608337</v>
+      </c>
+      <c r="J67">
+        <v>-0.03985861593244092</v>
+      </c>
+      <c r="K67">
+        <v>-0.046834811244406</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2934514161240738</v>
+        <v>0.2930033322616845</v>
       </c>
       <c r="C68">
-        <v>0.01454393442667338</v>
+        <v>0.07388079533770059</v>
       </c>
       <c r="D68">
-        <v>-0.008671140669692519</v>
+        <v>-0.02331754425860722</v>
       </c>
       <c r="E68">
-        <v>-0.02388977810016869</v>
+        <v>0.004959175855831267</v>
       </c>
       <c r="F68">
-        <v>0.009198151327139309</v>
+        <v>-0.03609334469651401</v>
       </c>
       <c r="G68">
-        <v>-0.01084662294621443</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.03627500574090813</v>
+      </c>
+      <c r="H68">
+        <v>0.02131532648092892</v>
+      </c>
+      <c r="I68">
+        <v>0.04517342194777931</v>
+      </c>
+      <c r="J68">
+        <v>0.02226154854344383</v>
+      </c>
+      <c r="K68">
+        <v>-0.05391615551989446</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.004300269612400705</v>
+        <v>0.008682594939287898</v>
       </c>
       <c r="C69">
-        <v>-0.04840656214947364</v>
+        <v>-0.04607809666931782</v>
       </c>
       <c r="D69">
-        <v>-0.05412594025423798</v>
+        <v>0.02483639975650602</v>
       </c>
       <c r="E69">
-        <v>0.03581900876943554</v>
+        <v>-0.006865936533872401</v>
       </c>
       <c r="F69">
-        <v>0.004038022479597629</v>
+        <v>0.005930852867297388</v>
       </c>
       <c r="G69">
-        <v>-0.022840217797898</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01097825632901387</v>
+      </c>
+      <c r="H69">
+        <v>-0.0222058638022127</v>
+      </c>
+      <c r="I69">
+        <v>0.03701879211912282</v>
+      </c>
+      <c r="J69">
+        <v>-0.01567355457579235</v>
+      </c>
+      <c r="K69">
+        <v>-0.01476160878558943</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2894853794739405</v>
+        <v>0.2749329863342934</v>
       </c>
       <c r="C71">
-        <v>0.0320301765095092</v>
+        <v>0.07885957009608066</v>
       </c>
       <c r="D71">
-        <v>0.006743310483882888</v>
+        <v>-0.02219353692319223</v>
       </c>
       <c r="E71">
-        <v>-0.02220666552538421</v>
+        <v>0.04048364077367531</v>
       </c>
       <c r="F71">
-        <v>-0.01587879475594812</v>
+        <v>-0.05957797034427799</v>
       </c>
       <c r="G71">
-        <v>0.001265033760481692</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01737128110776207</v>
+      </c>
+      <c r="H71">
+        <v>0.01975154576874421</v>
+      </c>
+      <c r="I71">
+        <v>0.0614294953556377</v>
+      </c>
+      <c r="J71">
+        <v>-0.0214901396147362</v>
+      </c>
+      <c r="K71">
+        <v>-0.1107850928725832</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.0051496681184246</v>
+        <v>0.05427723788616585</v>
       </c>
       <c r="C72">
-        <v>-0.1475821428215227</v>
+        <v>-0.1397717778010693</v>
       </c>
       <c r="D72">
-        <v>-0.06659380164845594</v>
+        <v>0.04893489654493204</v>
       </c>
       <c r="E72">
-        <v>0.01990693900149277</v>
+        <v>-0.03542446013583463</v>
       </c>
       <c r="F72">
-        <v>-0.04180013911029933</v>
+        <v>0.03125087926932112</v>
       </c>
       <c r="G72">
-        <v>-0.1270999163237709</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.01634909909520979</v>
+      </c>
+      <c r="H72">
+        <v>-0.003630201207779721</v>
+      </c>
+      <c r="I72">
+        <v>0.05045105873669671</v>
+      </c>
+      <c r="J72">
+        <v>0.03795977823918174</v>
+      </c>
+      <c r="K72">
+        <v>0.1148989289587453</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.06237052679124595</v>
+        <v>0.1548941505968673</v>
       </c>
       <c r="C73">
-        <v>-0.1060857819251986</v>
+        <v>-0.1986246647589255</v>
       </c>
       <c r="D73">
-        <v>-0.115721269752139</v>
+        <v>0.08446642536349849</v>
       </c>
       <c r="E73">
-        <v>0.1886184012542196</v>
+        <v>-0.1254855384250348</v>
       </c>
       <c r="F73">
-        <v>0.2021798321779707</v>
+        <v>0.2529198244387889</v>
       </c>
       <c r="G73">
-        <v>-0.3099130112708239</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.02939759541157561</v>
+      </c>
+      <c r="H73">
+        <v>-0.3494216598481802</v>
+      </c>
+      <c r="I73">
+        <v>-0.2798641260838768</v>
+      </c>
+      <c r="J73">
+        <v>-0.1023839071547916</v>
+      </c>
+      <c r="K73">
+        <v>-0.1132106596224119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.007560853292078027</v>
+        <v>0.03823743387080927</v>
       </c>
       <c r="C74">
-        <v>-0.08006642770035863</v>
+        <v>-0.09903232028969394</v>
       </c>
       <c r="D74">
-        <v>-0.07226496351195907</v>
+        <v>0.04731109110108886</v>
       </c>
       <c r="E74">
-        <v>0.06723075076234437</v>
+        <v>-0.01208312176677524</v>
       </c>
       <c r="F74">
-        <v>0.04245908692851539</v>
+        <v>0.03900832891171115</v>
       </c>
       <c r="G74">
-        <v>0.04697179590846037</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.02645025733800981</v>
+      </c>
+      <c r="H74">
+        <v>0.05014470396472633</v>
+      </c>
+      <c r="I74">
+        <v>0.02526897390673906</v>
+      </c>
+      <c r="J74">
+        <v>-0.004249898705653211</v>
+      </c>
+      <c r="K74">
+        <v>0.01591057815881</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.03605530427771247</v>
+        <v>0.06278798553133635</v>
       </c>
       <c r="C75">
-        <v>-0.1435691691369295</v>
+        <v>-0.1660849352463782</v>
       </c>
       <c r="D75">
-        <v>-0.08265215497355655</v>
+        <v>0.08551081779224726</v>
       </c>
       <c r="E75">
-        <v>0.1394512561154277</v>
+        <v>-0.009486705460219434</v>
       </c>
       <c r="F75">
-        <v>0.03114635409658364</v>
+        <v>0.1032904444533513</v>
       </c>
       <c r="G75">
-        <v>0.1844851381247996</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.02109845232821381</v>
+      </c>
+      <c r="H75">
+        <v>0.220481368981001</v>
+      </c>
+      <c r="I75">
+        <v>0.002027267419073739</v>
+      </c>
+      <c r="J75">
+        <v>0.01593077442277637</v>
+      </c>
+      <c r="K75">
+        <v>-0.1281800620946392</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.0123593351241278</v>
+        <v>0.04402160391371518</v>
       </c>
       <c r="C76">
-        <v>-0.1058410028385279</v>
+        <v>-0.1240794588695827</v>
       </c>
       <c r="D76">
-        <v>-0.06595311907898087</v>
+        <v>0.07511540638410104</v>
       </c>
       <c r="E76">
-        <v>0.08060462093608251</v>
+        <v>-0.04171579516419178</v>
       </c>
       <c r="F76">
-        <v>0.05990771429946518</v>
+        <v>0.06888981340861162</v>
       </c>
       <c r="G76">
-        <v>0.0464629060134821</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.01405347653902785</v>
+      </c>
+      <c r="H76">
+        <v>0.08067769112766911</v>
+      </c>
+      <c r="I76">
+        <v>-0.0125136264962342</v>
+      </c>
+      <c r="J76">
+        <v>0.05379672137091895</v>
+      </c>
+      <c r="K76">
+        <v>0.01086262133278936</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.08979161793249765</v>
+        <v>0.05662248180772049</v>
       </c>
       <c r="C77">
-        <v>-0.3861826593582234</v>
+        <v>-0.4082371527928734</v>
       </c>
       <c r="D77">
-        <v>0.8320885108018091</v>
+        <v>-0.8952538465404348</v>
       </c>
       <c r="E77">
-        <v>0.276295590303885</v>
+        <v>0.01313068326907315</v>
       </c>
       <c r="F77">
-        <v>0.1237182260823259</v>
+        <v>0.0654384454950632</v>
       </c>
       <c r="G77">
-        <v>-0.003399386347578113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.05335389883361326</v>
+      </c>
+      <c r="H77">
+        <v>0.03806866548714829</v>
+      </c>
+      <c r="I77">
+        <v>0.04415496135755512</v>
+      </c>
+      <c r="J77">
+        <v>0.0585368159608891</v>
+      </c>
+      <c r="K77">
+        <v>-0.02520120345902157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02293179877873828</v>
+        <v>0.03676233948219534</v>
       </c>
       <c r="C78">
-        <v>-0.125318447618587</v>
+        <v>-0.1122237464994204</v>
       </c>
       <c r="D78">
-        <v>-0.1864007828174553</v>
+        <v>0.09577010190142131</v>
       </c>
       <c r="E78">
-        <v>-0.1023670776106954</v>
+        <v>-0.02677901602307303</v>
       </c>
       <c r="F78">
-        <v>0.1335471783221201</v>
+        <v>-0.0249586242119123</v>
       </c>
       <c r="G78">
-        <v>0.1286682853107195</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.0467677581425299</v>
+      </c>
+      <c r="H78">
+        <v>0.1161813774393724</v>
+      </c>
+      <c r="I78">
+        <v>0.07314811005637481</v>
+      </c>
+      <c r="J78">
+        <v>-0.07131771711508481</v>
+      </c>
+      <c r="K78">
+        <v>0.1354565435427571</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.01876725262641147</v>
+        <v>0.05589240197026526</v>
       </c>
       <c r="C79">
-        <v>-0.1637674627439955</v>
+        <v>-0.141155636830038</v>
       </c>
       <c r="D79">
-        <v>-0.11487114337539</v>
+        <v>0.06962642369827375</v>
       </c>
       <c r="E79">
-        <v>0.09887185463918059</v>
+        <v>-0.04693275940913388</v>
       </c>
       <c r="F79">
-        <v>0.06957405477044569</v>
+        <v>0.04997850270074091</v>
       </c>
       <c r="G79">
-        <v>0.2818320077322437</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.004281917085434062</v>
+      </c>
+      <c r="H79">
+        <v>0.2560125891157407</v>
+      </c>
+      <c r="I79">
+        <v>0.05504675003855608</v>
+      </c>
+      <c r="J79">
+        <v>-0.01504328931199224</v>
+      </c>
+      <c r="K79">
+        <v>-0.04373706601906301</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.006879008579763602</v>
+        <v>0.01956323808378818</v>
       </c>
       <c r="C80">
-        <v>-0.05339525019887315</v>
+        <v>-0.04381239686138523</v>
       </c>
       <c r="D80">
-        <v>-0.05008141357814711</v>
+        <v>0.03778807263961346</v>
       </c>
       <c r="E80">
-        <v>-0.03935736938030623</v>
+        <v>-0.0260567568177745</v>
       </c>
       <c r="F80">
-        <v>0.01135691519000499</v>
+        <v>-0.05143234230294207</v>
       </c>
       <c r="G80">
-        <v>-0.006662737275805548</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.01986011057873775</v>
+      </c>
+      <c r="H80">
+        <v>-0.07519692631265351</v>
+      </c>
+      <c r="I80">
+        <v>-0.03908480727141202</v>
+      </c>
+      <c r="J80">
+        <v>-0.04073564849916599</v>
+      </c>
+      <c r="K80">
+        <v>-0.03629375850584936</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.0001009475001453107</v>
+        <v>0.0160315291477105</v>
       </c>
       <c r="C81">
-        <v>-0.07702023382870114</v>
+        <v>-0.0955804587850911</v>
       </c>
       <c r="D81">
-        <v>-0.07328360078706139</v>
+        <v>0.05736872400127636</v>
       </c>
       <c r="E81">
-        <v>0.07569788949286661</v>
+        <v>-0.0306284754208861</v>
       </c>
       <c r="F81">
-        <v>0.05029296411620893</v>
+        <v>0.02478027255352824</v>
       </c>
       <c r="G81">
-        <v>0.08676852921355682</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.006927640577778242</v>
+      </c>
+      <c r="H81">
+        <v>0.1084614034348774</v>
+      </c>
+      <c r="I81">
+        <v>0.07043021143019405</v>
+      </c>
+      <c r="J81">
+        <v>-0.01168932626108097</v>
+      </c>
+      <c r="K81">
+        <v>-0.04172667656421225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.0135489623861569</v>
+        <v>0.0451566422564702</v>
       </c>
       <c r="C82">
-        <v>-0.07735550955225079</v>
+        <v>-0.1043435894476586</v>
       </c>
       <c r="D82">
-        <v>-0.07284218992322723</v>
+        <v>0.06571733779097437</v>
       </c>
       <c r="E82">
-        <v>0.08993772220418644</v>
+        <v>-0.03879422349541404</v>
       </c>
       <c r="F82">
-        <v>0.04896895495573999</v>
+        <v>0.05042444211533273</v>
       </c>
       <c r="G82">
-        <v>0.04455964826819684</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.03623148002435637</v>
+      </c>
+      <c r="H82">
+        <v>0.08109532640883647</v>
+      </c>
+      <c r="I82">
+        <v>0.005457385975385898</v>
+      </c>
+      <c r="J82">
+        <v>0.0259652467222812</v>
+      </c>
+      <c r="K82">
+        <v>-0.006859388398813848</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.002913041432110776</v>
+        <v>-0.000896803186678628</v>
       </c>
       <c r="C83">
-        <v>-0.02182796717985305</v>
+        <v>0.02306584028194778</v>
       </c>
       <c r="D83">
-        <v>0.1300405939060081</v>
+        <v>-0.05991092507202819</v>
       </c>
       <c r="E83">
-        <v>-0.6053333269408773</v>
+        <v>-0.8081316416305934</v>
       </c>
       <c r="F83">
-        <v>0.6808434425304518</v>
+        <v>-0.5036036354663506</v>
       </c>
       <c r="G83">
-        <v>0.1217740106995156</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.1346939184686251</v>
+      </c>
+      <c r="H83">
+        <v>0.01666008645608688</v>
+      </c>
+      <c r="I83">
+        <v>-0.1145834684277047</v>
+      </c>
+      <c r="J83">
+        <v>0.04211005517973151</v>
+      </c>
+      <c r="K83">
+        <v>0.04615703531624905</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.01214426615443303</v>
+        <v>0.01317723579369323</v>
       </c>
       <c r="C84">
-        <v>-0.09010363941522964</v>
+        <v>-0.06212886699363862</v>
       </c>
       <c r="D84">
-        <v>-0.03669613838055243</v>
+        <v>0.08731726990953717</v>
       </c>
       <c r="E84">
-        <v>-0.06263635262414652</v>
+        <v>0.2524252689304697</v>
       </c>
       <c r="F84">
-        <v>-0.1514782769040565</v>
+        <v>-0.2129974622777733</v>
       </c>
       <c r="G84">
-        <v>-0.0001346981692938822</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.5395385203355089</v>
+      </c>
+      <c r="H84">
+        <v>-0.06653204258602408</v>
+      </c>
+      <c r="I84">
+        <v>-0.2788269417090453</v>
+      </c>
+      <c r="J84">
+        <v>0.6179885297017016</v>
+      </c>
+      <c r="K84">
+        <v>-0.1738040112475395</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.003320676019761525</v>
+        <v>0.02974373282064734</v>
       </c>
       <c r="C85">
-        <v>-0.1142734451257091</v>
+        <v>-0.1165030881814833</v>
       </c>
       <c r="D85">
-        <v>-0.08049530657974262</v>
+        <v>0.08371835313726804</v>
       </c>
       <c r="E85">
-        <v>0.09200345812978789</v>
+        <v>-0.06478957850934575</v>
       </c>
       <c r="F85">
-        <v>0.06652711798751575</v>
+        <v>0.09906350463005398</v>
       </c>
       <c r="G85">
-        <v>0.2074880785428539</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.0194608425478512</v>
+      </c>
+      <c r="H85">
+        <v>0.2306497122439766</v>
+      </c>
+      <c r="I85">
+        <v>-0.00353210287447797</v>
+      </c>
+      <c r="J85">
+        <v>0.04286843513132393</v>
+      </c>
+      <c r="K85">
+        <v>-0.077606698882213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01849772586034575</v>
+        <v>0.01425573410764908</v>
       </c>
       <c r="C86">
-        <v>-0.08257812266045388</v>
+        <v>-0.07824722795330555</v>
       </c>
       <c r="D86">
-        <v>0.004217084942709258</v>
+        <v>0.03159798900292141</v>
       </c>
       <c r="E86">
-        <v>-0.005575145313028974</v>
+        <v>0.03673868975281643</v>
       </c>
       <c r="F86">
-        <v>-0.01946195152177607</v>
+        <v>-0.07891721258635429</v>
       </c>
       <c r="G86">
-        <v>-0.0760746154656015</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.0141834926395941</v>
+      </c>
+      <c r="H86">
+        <v>0.04849455433181053</v>
+      </c>
+      <c r="I86">
+        <v>0.01397427518559023</v>
+      </c>
+      <c r="J86">
+        <v>-0.1946044041214982</v>
+      </c>
+      <c r="K86">
+        <v>-0.07876321982331412</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.02114127146894403</v>
+        <v>0.02635400285239005</v>
       </c>
       <c r="C87">
-        <v>-0.1526147637036687</v>
+        <v>-0.1190273414594972</v>
       </c>
       <c r="D87">
-        <v>-0.04278648976593019</v>
+        <v>0.02249886892573815</v>
       </c>
       <c r="E87">
-        <v>-0.08737839975097436</v>
+        <v>0.01125919568868975</v>
       </c>
       <c r="F87">
-        <v>-0.04815278467553155</v>
+        <v>-0.04924026217802988</v>
       </c>
       <c r="G87">
-        <v>-0.01995892981800998</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.0302725975124766</v>
+      </c>
+      <c r="H87">
+        <v>0.005965795167238738</v>
+      </c>
+      <c r="I87">
+        <v>0.03868894934255139</v>
+      </c>
+      <c r="J87">
+        <v>0.04216207272073783</v>
+      </c>
+      <c r="K87">
+        <v>0.08734179925349543</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.004016373431703984</v>
+        <v>0.03981014780215845</v>
       </c>
       <c r="C88">
-        <v>-0.03723429084060171</v>
+        <v>-0.05876823979752645</v>
       </c>
       <c r="D88">
-        <v>-0.03493418648852631</v>
+        <v>0.04146320997658463</v>
       </c>
       <c r="E88">
-        <v>0.05268362545369704</v>
+        <v>-0.005630036730416469</v>
       </c>
       <c r="F88">
-        <v>0.005239275954723011</v>
+        <v>0.02235140775840102</v>
       </c>
       <c r="G88">
-        <v>-0.0006610603116455167</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.01259393549808676</v>
+      </c>
+      <c r="H88">
+        <v>-0.01393609165649493</v>
+      </c>
+      <c r="I88">
+        <v>0.007182748112775235</v>
+      </c>
+      <c r="J88">
+        <v>-0.01792985295920407</v>
+      </c>
+      <c r="K88">
+        <v>0.006679035165484628</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4006011665373046</v>
+        <v>0.3912034094527359</v>
       </c>
       <c r="C89">
-        <v>0.05976781430259448</v>
+        <v>0.1190024424953746</v>
       </c>
       <c r="D89">
-        <v>-0.07209105027688943</v>
+        <v>-0.03745298307673404</v>
       </c>
       <c r="E89">
-        <v>-0.05772043176616794</v>
+        <v>0.04943419982256245</v>
       </c>
       <c r="F89">
-        <v>-0.09584401502808769</v>
+        <v>-0.02324743237264133</v>
       </c>
       <c r="G89">
-        <v>0.017619872297652</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.01589826586608368</v>
+      </c>
+      <c r="H89">
+        <v>-0.03861911687911933</v>
+      </c>
+      <c r="I89">
+        <v>-0.009317833361719699</v>
+      </c>
+      <c r="J89">
+        <v>0.1290914963667994</v>
+      </c>
+      <c r="K89">
+        <v>0.7480233984324995</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3072936919335522</v>
+        <v>0.3162550647918498</v>
       </c>
       <c r="C90">
-        <v>0.01331811453172469</v>
+        <v>0.07732785915619672</v>
       </c>
       <c r="D90">
-        <v>-0.005332432628073425</v>
+        <v>-0.01911808621363119</v>
       </c>
       <c r="E90">
-        <v>-0.07131289580949481</v>
+        <v>0.00817184639731504</v>
       </c>
       <c r="F90">
-        <v>0.04444671545474971</v>
+        <v>-0.03493665848000877</v>
       </c>
       <c r="G90">
-        <v>-0.03282309782487421</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.001387289129590623</v>
+      </c>
+      <c r="H90">
+        <v>-0.00154483546020408</v>
+      </c>
+      <c r="I90">
+        <v>0.005387712129129712</v>
+      </c>
+      <c r="J90">
+        <v>0.01314939881800792</v>
+      </c>
+      <c r="K90">
+        <v>-0.1044564760377262</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.02094489975547375</v>
+        <v>0.05427455737987097</v>
       </c>
       <c r="C91">
-        <v>-0.07959264875997982</v>
+        <v>-0.07823970826938519</v>
       </c>
       <c r="D91">
-        <v>-0.06349671862555643</v>
+        <v>0.05388203046324239</v>
       </c>
       <c r="E91">
-        <v>0.04916362726569261</v>
+        <v>-0.06093795894970749</v>
       </c>
       <c r="F91">
-        <v>0.05528583716706124</v>
+        <v>0.02608283523515131</v>
       </c>
       <c r="G91">
-        <v>0.07964889347314466</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.004145510980653425</v>
+      </c>
+      <c r="H91">
+        <v>0.08985818972017227</v>
+      </c>
+      <c r="I91">
+        <v>-0.01597642868088873</v>
+      </c>
+      <c r="J91">
+        <v>0.01331747107228943</v>
+      </c>
+      <c r="K91">
+        <v>-0.01360526377665895</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3857284748966808</v>
+        <v>0.3517387868165237</v>
       </c>
       <c r="C92">
-        <v>0.05403630295151293</v>
+        <v>0.1218094196874738</v>
       </c>
       <c r="D92">
-        <v>0.01450492316526085</v>
+        <v>-0.05509016655026165</v>
       </c>
       <c r="E92">
-        <v>0.01916533117212342</v>
+        <v>0.05345390134194847</v>
       </c>
       <c r="F92">
-        <v>-0.1211166354373214</v>
+        <v>-0.02374862080607174</v>
       </c>
       <c r="G92">
-        <v>0.01499229247867992</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.02680699374219524</v>
+      </c>
+      <c r="H92">
+        <v>0.01208879658597311</v>
+      </c>
+      <c r="I92">
+        <v>0.06881042002097598</v>
+      </c>
+      <c r="J92">
+        <v>-0.005517113768342315</v>
+      </c>
+      <c r="K92">
+        <v>-0.142331860632003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3073752337922153</v>
+        <v>0.3075822729865253</v>
       </c>
       <c r="C93">
-        <v>0.06706006690410231</v>
+        <v>0.1203510477322388</v>
       </c>
       <c r="D93">
-        <v>-0.01242687048362291</v>
+        <v>-0.00772867631129184</v>
       </c>
       <c r="E93">
-        <v>-0.06393805119562804</v>
+        <v>0.03181654509499283</v>
       </c>
       <c r="F93">
-        <v>-0.03779161126568548</v>
+        <v>-0.04769881847372854</v>
       </c>
       <c r="G93">
-        <v>0.002137876396305366</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.01148889491092489</v>
+      </c>
+      <c r="H93">
+        <v>0.03610583990541927</v>
+      </c>
+      <c r="I93">
+        <v>0.02887369671879185</v>
+      </c>
+      <c r="J93">
+        <v>-0.03715363765398754</v>
+      </c>
+      <c r="K93">
+        <v>-0.1108008600478588</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.0304661801924559</v>
+        <v>0.08166563725048454</v>
       </c>
       <c r="C94">
-        <v>-0.19528582425404</v>
+        <v>-0.1640407438402825</v>
       </c>
       <c r="D94">
-        <v>-0.1455059626130144</v>
+        <v>0.1143553773448833</v>
       </c>
       <c r="E94">
-        <v>0.1329095815293365</v>
+        <v>-0.08739845495134101</v>
       </c>
       <c r="F94">
-        <v>0.0254622278270669</v>
+        <v>0.1108583135896025</v>
       </c>
       <c r="G94">
-        <v>0.6070159183286084</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.009652491842198878</v>
+      </c>
+      <c r="H94">
+        <v>0.5559516322037903</v>
+      </c>
+      <c r="I94">
+        <v>-0.196727420484451</v>
+      </c>
+      <c r="J94">
+        <v>0.02219682642934372</v>
+      </c>
+      <c r="K94">
+        <v>0.03435202782417916</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.01748851765457024</v>
+        <v>0.04293499687980645</v>
       </c>
       <c r="C95">
-        <v>-0.11007895983459</v>
+        <v>-0.1280229856145603</v>
       </c>
       <c r="D95">
-        <v>-0.05187176870844505</v>
+        <v>0.06627530184279737</v>
       </c>
       <c r="E95">
-        <v>0.053534764731057</v>
+        <v>0.001453126187420049</v>
       </c>
       <c r="F95">
-        <v>0.09193336777710691</v>
+        <v>0.06784714166480926</v>
       </c>
       <c r="G95">
-        <v>-0.05290050860704418</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.05297676385958781</v>
+      </c>
+      <c r="H95">
+        <v>-0.04409989447674989</v>
+      </c>
+      <c r="I95">
+        <v>0.01874436503960838</v>
+      </c>
+      <c r="J95">
+        <v>0.1377216053095127</v>
+      </c>
+      <c r="K95">
+        <v>0.0985056640894441</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-3.341009815704421e-05</v>
+        <v>0.01973137165548738</v>
       </c>
       <c r="C97">
-        <v>0.0001086213726702445</v>
+        <v>-0.02208153982835859</v>
       </c>
       <c r="D97">
-        <v>-0.0003913562609507472</v>
+        <v>-0.008475277270739741</v>
       </c>
       <c r="E97">
-        <v>0.005641643038958546</v>
+        <v>0.02694902995517964</v>
       </c>
       <c r="F97">
-        <v>-0.001803746748753947</v>
+        <v>0.0162201049145953</v>
       </c>
       <c r="G97">
-        <v>-0.004620068194949175</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.04267839599685305</v>
+      </c>
+      <c r="H97">
+        <v>-0.03409207266018045</v>
+      </c>
+      <c r="I97">
+        <v>0.004358539369876156</v>
+      </c>
+      <c r="J97">
+        <v>-0.0708750827669308</v>
+      </c>
+      <c r="K97">
+        <v>0.04872142467451159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.07641418728393856</v>
+        <v>0.1372303745030472</v>
       </c>
       <c r="C98">
-        <v>-0.1367679931483192</v>
+        <v>-0.1626117693292459</v>
       </c>
       <c r="D98">
-        <v>-0.1397972000678211</v>
+        <v>0.0902496731535211</v>
       </c>
       <c r="E98">
-        <v>0.1226272586672132</v>
+        <v>-0.1408657653611091</v>
       </c>
       <c r="F98">
-        <v>0.1439354785457541</v>
+        <v>0.2272586585777963</v>
       </c>
       <c r="G98">
-        <v>-0.1915809095199374</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.02389208595957697</v>
+      </c>
+      <c r="H98">
+        <v>-0.2697305050756711</v>
+      </c>
+      <c r="I98">
+        <v>-0.3077648823392787</v>
+      </c>
+      <c r="J98">
+        <v>-0.1036441290089372</v>
+      </c>
+      <c r="K98">
+        <v>-0.1081934561998986</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01993610151412824</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.04357368249978084</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.003165053244273227</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.1670442101730111</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.08076073978390054</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.6739201440305181</v>
+      </c>
+      <c r="H99">
+        <v>0.02568811737551763</v>
+      </c>
+      <c r="I99">
+        <v>-0.1076003334108941</v>
+      </c>
+      <c r="J99">
+        <v>-0.6251129523318334</v>
+      </c>
+      <c r="K99">
+        <v>0.1495492963452778</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.005813605745488165</v>
+        <v>0.01685695525840139</v>
       </c>
       <c r="C101">
-        <v>-0.07867495676777721</v>
+        <v>-0.08309868477029626</v>
       </c>
       <c r="D101">
-        <v>-0.04947519939082102</v>
+        <v>0.04958744980944366</v>
       </c>
       <c r="E101">
-        <v>-0.006670410885060993</v>
+        <v>-0.03127511072295013</v>
       </c>
       <c r="F101">
-        <v>0.03615985902069817</v>
+        <v>-0.03457988124156876</v>
       </c>
       <c r="G101">
-        <v>-0.1187466137871507</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.05761117222833612</v>
+      </c>
+      <c r="H101">
+        <v>-0.1539117630356731</v>
+      </c>
+      <c r="I101">
+        <v>0.2541659078779336</v>
+      </c>
+      <c r="J101">
+        <v>0.06228758949517738</v>
+      </c>
+      <c r="K101">
+        <v>-0.02019077285926675</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.003164920245497389</v>
+        <v>0.001613194419773197</v>
       </c>
       <c r="C102">
-        <v>-0.01756296470272009</v>
+        <v>-0.007007251918516807</v>
       </c>
       <c r="D102">
-        <v>0.0001734459090132785</v>
+        <v>-0.001742630807720034</v>
       </c>
       <c r="E102">
-        <v>0.01683835935420817</v>
+        <v>-0.00394804655320937</v>
       </c>
       <c r="F102">
-        <v>0.01817483255624852</v>
+        <v>0.003026015564525655</v>
       </c>
       <c r="G102">
-        <v>0.01099117007551836</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.0003441383291409489</v>
+      </c>
+      <c r="H102">
+        <v>0.004762697238927179</v>
+      </c>
+      <c r="I102">
+        <v>0.008114113140945144</v>
+      </c>
+      <c r="J102">
+        <v>0.00111103926052161</v>
+      </c>
+      <c r="K102">
+        <v>0.0150923037005275</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
